--- a/eagle/Orange-Pi-Zero/RS232/zero_board-CPL.xlsx
+++ b/eagle/Orange-Pi-Zero/RS232/zero_board-CPL.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
   <si>
     <t xml:space="preserve">Designator</t>
   </si>
@@ -61,6 +61,18 @@
     <t xml:space="preserve">LED2</t>
   </si>
   <si>
+    <t xml:space="preserve">LED3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOP</t>
+  </si>
+  <si>
     <t xml:space="preserve">R1</t>
   </si>
   <si>
@@ -70,7 +82,28 @@
     <t xml:space="preserve">R3</t>
   </si>
   <si>
+    <t xml:space="preserve">R4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R8</t>
+  </si>
+  <si>
     <t xml:space="preserve">U1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2</t>
   </si>
 </sst>
 </file>
@@ -164,8 +197,8 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -185,10 +218,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -221,189 +254,359 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="3" t="n">
         <v>22.86</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="3" t="n">
         <v>26.04</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="3" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="3" t="n">
         <v>12.7</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="3" t="n">
         <v>26.67</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="3" t="n">
         <v>270</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="3" t="n">
         <v>10.16</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="3" t="n">
         <v>26.67</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="3" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="3" t="n">
         <v>11.43</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="3" t="n">
         <v>22.86</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="3" t="n">
         <v>11.43</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="3" t="n">
         <v>20.32</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="3" t="n">
         <v>28.89</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="3" t="n">
         <v>20.32</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="1" t="n">
-        <v>0</v>
+      <c r="E7" s="3" t="n">
+        <v>180</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="3" t="n">
         <v>28.89</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="3" t="n">
         <v>21.59</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="1" t="n">
-        <v>0</v>
+      <c r="E8" s="3" t="n">
+        <v>180</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="1" t="n">
-        <v>14.03</v>
-      </c>
-      <c r="C9" s="1" t="n">
+      <c r="B9" s="3" t="n">
+        <v>28.89</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>28.89</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>13.02</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>8.89</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>27.69</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>27.62</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>18.41</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>27.62</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>11.43</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>27.62</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>27.62</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>13.97</v>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>8.89</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>17.92</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>22.23</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="3" t="n">
         <v>9.84</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>27.62</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>18.41</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>27.62</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>17.92</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>22.23</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="1" t="n">
+      <c r="C21" s="3" t="n">
+        <v>14.92</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>13.97</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>14.92</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="3" t="n">
         <v>270</v>
       </c>
     </row>
